--- a/InventAnalyticsCaseStudy/grid_search_results.xlsx
+++ b/InventAnalyticsCaseStudy/grid_search_results.xlsx
@@ -473,7 +473,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,6 +483,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,26 +509,26 @@
   </sheetPr>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q37" activeCellId="0" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="110.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="107.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="0" width="17.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +678,7 @@
       <c r="I3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="J3" s="0" t="b">
+      <c r="J3" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -734,7 +738,7 @@
       <c r="I4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="J4" s="0" t="b">
+      <c r="J4" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2099,7 +2103,7 @@
       <c r="I27" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="J27" s="2" t="b">
+      <c r="J27" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2159,7 +2163,7 @@
       <c r="I28" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J28" s="2" t="b">
+      <c r="J28" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2216,7 +2220,7 @@
       <c r="H29" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="2" t="b">
+      <c r="J29" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2276,7 +2280,7 @@
       <c r="I30" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J30" s="2" t="b">
+      <c r="J30" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2336,7 +2340,7 @@
       <c r="I31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J31" s="2" t="b">
+      <c r="J31" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2396,7 +2400,7 @@
       <c r="I32" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J32" s="2" t="b">
+      <c r="J32" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2456,7 +2460,7 @@
       <c r="I33" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J33" s="2" t="b">
+      <c r="J33" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
